--- a/data/trans_dic/P64D$publico_2023-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P64D$publico_2023-Dificultad-trans_dic.xlsx
@@ -567,7 +567,7 @@
         <v>0.1681170366358328</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.2122499628653729</v>
+        <v>0.212249962865373</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.1897325605147797</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1161422901165299</v>
+        <v>0.1154195739374435</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1575087343707081</v>
+        <v>0.1598843647595219</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1508902125854135</v>
+        <v>0.149112987052921</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2346007374293763</v>
+        <v>0.2364687238590321</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.277384312965465</v>
+        <v>0.287346322849354</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.238155101118487</v>
+        <v>0.2351328788069125</v>
       </c>
     </row>
     <row r="7">
@@ -625,7 +625,7 @@
         <v>0.1428480556249703</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.1056438510572807</v>
+        <v>0.1056438510572808</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.05600614102513422</v>
+        <v>0.05382991356372181</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1106428319276768</v>
+        <v>0.1101758402951918</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.08593249722328543</v>
+        <v>0.08416129484364794</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1144335079552539</v>
+        <v>0.1085577861506283</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1799429071919583</v>
+        <v>0.1792052797503097</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1275569914437442</v>
+        <v>0.1318261080804121</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.05907134805416198</v>
+        <v>0.05962346925965527</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.07863418407092394</v>
+        <v>0.07804866796825417</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.07289120680406939</v>
+        <v>0.07486395449062992</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1061083424833568</v>
+        <v>0.1080516797102751</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1274479092369146</v>
+        <v>0.1268635104882697</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1078777057126506</v>
+        <v>0.108138142051237</v>
       </c>
     </row>
     <row r="13">
@@ -729,13 +729,13 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.06205428616373459</v>
+        <v>0.0620542861637346</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.06559906483479395</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.06360929591395528</v>
+        <v>0.06360929591395525</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.04293424583698487</v>
+        <v>0.04412379621230639</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.04650634421791239</v>
+        <v>0.04523880483642535</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.04968200409488668</v>
+        <v>0.04820088172278082</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.09160504688287055</v>
+        <v>0.08846286711135933</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.08971455714358979</v>
+        <v>0.08987419158806773</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.08127644015626917</v>
+        <v>0.08109238076423564</v>
       </c>
     </row>
     <row r="16">
@@ -790,7 +790,7 @@
         <v>0.1129599992958385</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.09585196010044317</v>
+        <v>0.09585196010044318</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.07010987289679384</v>
+        <v>0.06957842167148659</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.09928286294010542</v>
+        <v>0.09721602723194601</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.08552805066040957</v>
+        <v>0.08581986310900791</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.09743669565996924</v>
+        <v>0.09745540218390918</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1291359750581132</v>
+        <v>0.1290962516607518</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.106097451833115</v>
+        <v>0.1062553333408912</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>20635</v>
+        <v>20506</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>26864</v>
+        <v>27269</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>52543</v>
+        <v>51925</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>41681</v>
+        <v>42013</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>47309</v>
+        <v>49008</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>82931</v>
+        <v>81879</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>28585</v>
+        <v>27474</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>39842</v>
+        <v>39674</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>74803</v>
+        <v>73261</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>58405</v>
+        <v>55407</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>64796</v>
+        <v>64531</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>111036</v>
+        <v>114752</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>36741</v>
+        <v>37085</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>38424</v>
+        <v>38138</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>80955</v>
+        <v>83146</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>65997</v>
+        <v>67206</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>62276</v>
+        <v>61991</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>119811</v>
+        <v>120101</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>25354</v>
+        <v>26056</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>21462</v>
+        <v>20878</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>52266</v>
+        <v>50708</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>54095</v>
+        <v>52239</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>41403</v>
+        <v>41477</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>85504</v>
+        <v>85311</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>133248</v>
+        <v>132238</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>147017</v>
+        <v>143956</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>289200</v>
+        <v>290187</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>185184</v>
+        <v>185220</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>191223</v>
+        <v>191164</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>358752</v>
+        <v>359286</v>
       </c>
     </row>
     <row r="24">
